--- a/premise/data/additional_inventories/lci-rail-freight.xlsx
+++ b/premise/data/additional_inventories/lci-rail-freight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas.klimt\Documents\Master\Master Thesis\premise_transport\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise_transport/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A06B261-64E6-42A2-87DC-7006E52F452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704DA719-BE3E-734A-8BA4-04C8101B04A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{3988C069-CC65-40BA-9751-20608AAA2DA4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="22100" windowHeight="17540" xr2:uid="{3988C069-CC65-40BA-9751-20608AAA2DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1060,9 +1060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1100,7 +1100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1206,7 +1206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1348,7 +1348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1358,16 +1358,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A08E695-FC79-4DF0-ACCB-3B3F78317B74}">
   <dimension ref="A1:H1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="F441" sqref="F441"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.77734375" customWidth="1"/>
+    <col min="1" max="1" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>233</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1439,12 +1439,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1452,17 +1452,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>277</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>278</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1712,12 +1712,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1725,17 +1725,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1931,12 +1931,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -1952,17 +1952,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>280</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2227,17 +2227,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -2245,17 +2245,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>101</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>111</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>237</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>64</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -3024,17 +3024,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3042,17 +3042,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>67</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>41</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>72</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>61</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>73</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>74</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>77</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>80</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>82</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>84</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>86</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>88</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>90</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>92</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>93</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>95</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>97</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>101</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>103</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>105</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>107</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>109</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>111</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>113</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>114</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>238</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>116</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>237</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>118</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>120</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>0</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -3864,17 +3864,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -3882,17 +3882,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>67</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>129</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>49</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>72</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>73</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>74</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>77</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>80</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>82</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>84</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>86</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>88</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>90</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>92</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>93</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>95</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>97</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>99</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>101</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>103</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>105</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>107</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>109</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>111</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>113</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>114</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>116</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>237</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>118</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>128</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -4681,17 +4681,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -4699,17 +4699,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>67</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>134</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>61</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>135</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>74</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>77</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>80</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>82</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>84</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>86</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>88</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>90</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>92</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>93</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>95</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>97</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>99</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>101</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>103</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>105</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>107</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>109</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>111</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>113</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>114</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>116</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>118</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>64</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>0</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>9</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>10</v>
       </c>
@@ -5478,17 +5478,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -5496,17 +5496,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>67</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>122</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>137</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>41</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>134</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>61</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>135</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>74</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>77</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>80</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>82</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>84</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>86</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>88</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>90</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>92</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>93</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>95</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>97</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>99</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>101</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>103</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>105</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>107</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>109</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>111</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>113</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>114</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>238</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>116</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>237</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>118</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>120</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>0</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>9</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>10</v>
       </c>
@@ -6344,17 +6344,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -6362,17 +6362,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>67</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>129</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>49</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>134</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>61</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>135</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>74</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>77</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>80</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>82</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>84</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>86</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>88</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>90</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>92</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>93</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>95</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>97</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>99</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>101</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>103</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>105</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>107</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>109</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>111</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>113</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>114</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>116</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>237</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>118</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>128</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>0</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>2</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>4</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>9</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>10</v>
       </c>
@@ -7164,17 +7164,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -7182,17 +7182,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>67</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>134</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>61</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>135</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>74</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>77</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>80</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>82</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>84</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>86</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>88</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>90</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>92</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>93</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>95</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>97</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>99</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>101</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>103</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>105</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>107</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>109</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>111</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>113</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>114</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>116</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>237</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>118</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>64</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>0</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>4</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -7961,17 +7961,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -7979,17 +7979,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>19</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>67</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>137</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>41</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>134</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>61</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>135</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>74</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>77</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>80</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>82</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>84</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>86</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>88</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>90</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>92</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>93</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>95</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>97</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>99</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>101</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>103</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>105</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>107</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>109</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>111</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>113</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>114</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>238</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>116</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>237</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>118</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>120</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>0</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>2</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>4</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>9</v>
       </c>
@@ -8796,7 +8796,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>10</v>
       </c>
@@ -8804,17 +8804,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>15</v>
       </c>
@@ -8822,17 +8822,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>19</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>67</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>129</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>49</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>134</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>61</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>135</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>74</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>77</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>80</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>82</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>84</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>86</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>88</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>90</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>92</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>93</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>95</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>97</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>99</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>101</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>103</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>105</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>107</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>109</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>111</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>113</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>114</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>116</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>237</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>118</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>128</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>0</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>2</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>4</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>10</v>
       </c>
@@ -9624,17 +9624,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>15</v>
       </c>
@@ -9642,17 +9642,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>19</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>67</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>134</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>61</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>135</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>74</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>77</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>80</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>82</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>84</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>86</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>88</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>90</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>92</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>93</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>95</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>97</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>99</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>101</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>103</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>105</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>107</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>109</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>111</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>113</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>114</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>116</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>237</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>118</v>
       </c>
@@ -10345,7 +10345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>64</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>0</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>2</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>4</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>5</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>9</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>10</v>
       </c>
@@ -10421,17 +10421,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>15</v>
       </c>
@@ -10439,17 +10439,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>19</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>67</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>147</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>148</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>41</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>134</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>61</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>135</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>74</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>77</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>80</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>82</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>84</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>86</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>88</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>90</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>92</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>93</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>95</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>97</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>99</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>101</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>103</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>105</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>107</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>109</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>111</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>113</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>114</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>238</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>116</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>237</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>118</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>120</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>0</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>2</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>4</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>5</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>7</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>10</v>
       </c>
@@ -11287,17 +11287,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>15</v>
       </c>
@@ -11305,17 +11305,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>19</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>67</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>129</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>49</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>134</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>61</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>135</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>74</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>77</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>80</v>
       </c>
@@ -11548,7 +11548,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>82</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>84</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>86</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>88</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>90</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>92</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>93</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>95</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>97</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>99</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>101</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>103</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>105</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>107</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>109</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>111</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>113</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>114</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>116</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>237</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>118</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>128</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>0</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>2</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>4</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>5</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>7</v>
       </c>
@@ -12091,7 +12091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>9</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>10</v>
       </c>
@@ -12107,17 +12107,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>15</v>
       </c>
@@ -12125,17 +12125,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>19</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>67</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>134</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>61</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>135</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>74</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>77</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>80</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>82</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>84</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>86</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>88</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>90</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>92</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>93</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>95</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>97</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>99</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>101</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>103</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>105</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>107</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>109</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>111</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>113</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>114</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>116</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>237</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>118</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>64</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>0</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>2</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>4</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>7</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>10</v>
       </c>
@@ -12904,17 +12904,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>15</v>
       </c>
@@ -12922,17 +12922,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>19</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>67</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>122</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>137</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>41</v>
       </c>
@@ -13050,7 +13050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>134</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>61</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>135</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>74</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>77</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>80</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>82</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>84</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>86</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>88</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>90</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>92</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>93</v>
       </c>
@@ -13349,7 +13349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>95</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>97</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>99</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>101</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>103</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>105</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>107</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>109</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>111</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>113</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>114</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>238</v>
       </c>
@@ -13625,7 +13625,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>116</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>237</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>118</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>120</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>0</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>2</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>4</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>5</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>7</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>10</v>
       </c>
@@ -13770,17 +13770,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>15</v>
       </c>
@@ -13788,17 +13788,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>19</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>67</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>129</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>49</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>134</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>61</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>135</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>74</v>
       </c>
@@ -13985,7 +13985,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>77</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>80</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>82</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>84</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>86</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>88</v>
       </c>
@@ -14123,7 +14123,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>90</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>92</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>93</v>
       </c>
@@ -14192,7 +14192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>95</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>97</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>99</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>101</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>103</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>105</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>107</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>109</v>
       </c>
@@ -14376,7 +14376,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>111</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>113</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>114</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>116</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>237</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>118</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>128</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>0</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>2</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>4</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>5</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>7</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>9</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>10</v>
       </c>
@@ -14590,17 +14590,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>15</v>
       </c>
@@ -14608,17 +14608,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>19</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>240</v>
       </c>
@@ -14667,7 +14667,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>1</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>134</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>61</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>135</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>74</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>77</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>80</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>82</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>84</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>86</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>88</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>90</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>92</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>93</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>95</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>97</v>
       </c>
@@ -15035,7 +15035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>99</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>101</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>103</v>
       </c>
@@ -15104,7 +15104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>105</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>107</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>109</v>
       </c>
@@ -15173,7 +15173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>111</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>113</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>114</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>116</v>
       </c>
@@ -15265,7 +15265,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>237</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>118</v>
       </c>
@@ -15311,7 +15311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>64</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>0</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>2</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>5</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>7</v>
       </c>
@@ -15371,7 +15371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>9</v>
       </c>
@@ -15379,7 +15379,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>10</v>
       </c>
@@ -15387,17 +15387,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>15</v>
       </c>
@@ -15405,17 +15405,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>19</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>240</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>147</v>
       </c>
@@ -15487,7 +15487,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>147</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>147</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>147</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>147</v>
       </c>
@@ -15579,7 +15579,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>147</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>147</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>147</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>147</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>147</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>147</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>147</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>147</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>147</v>
       </c>
@@ -15786,7 +15786,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>147</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>147</v>
       </c>
@@ -15832,7 +15832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>147</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>147</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>147</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>147</v>
       </c>
@@ -15924,7 +15924,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>147</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>147</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>147</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>147</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>147</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>147</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>147</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>147</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>147</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>147</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>147</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>147</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>147</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>147</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>147</v>
       </c>
@@ -16269,7 +16269,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>147</v>
       </c>
@@ -16292,7 +16292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>147</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>147</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>147</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>147</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>147</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>147</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>147</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>147</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>147</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>147</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>147</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>147</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>147</v>
       </c>
@@ -16591,7 +16591,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>147</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>147</v>
       </c>
@@ -16637,7 +16637,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>147</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>147</v>
       </c>
@@ -16683,7 +16683,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>147</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>147</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>147</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>147</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>147</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>147</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>147</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>147</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>147</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>147</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>147</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>147</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>147</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>147</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>147</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>148</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>148</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>148</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>148</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>148</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>148</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>148</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>148</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>148</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>148</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>148</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>148</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>148</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>148</v>
       </c>
@@ -17350,7 +17350,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>148</v>
       </c>
@@ -17373,7 +17373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>148</v>
       </c>
@@ -17396,7 +17396,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>148</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>148</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>148</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>148</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>148</v>
       </c>
@@ -17511,7 +17511,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>148</v>
       </c>
@@ -17534,7 +17534,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>148</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>148</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>148</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>148</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>148</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>148</v>
       </c>
@@ -17672,7 +17672,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>148</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>148</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>148</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>148</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>148</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>148</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>148</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>148</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>148</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>148</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>148</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>148</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>148</v>
       </c>
@@ -17971,7 +17971,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>148</v>
       </c>
@@ -17994,7 +17994,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>148</v>
       </c>
@@ -18017,7 +18017,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>148</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>148</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>148</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>148</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>148</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>148</v>
       </c>
@@ -18155,7 +18155,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>148</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>148</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>148</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>148</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>148</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>148</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>148</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>148</v>
       </c>
@@ -18339,7 +18339,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>148</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>148</v>
       </c>
@@ -18385,7 +18385,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>148</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>148</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>148</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>148</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>148</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>148</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>148</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>148</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>148</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>122</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>122</v>
       </c>
@@ -18638,7 +18638,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>122</v>
       </c>
@@ -18661,7 +18661,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>137</v>
       </c>
@@ -18684,7 +18684,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>137</v>
       </c>
@@ -18707,7 +18707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>137</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>41</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>134</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>61</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>135</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>74</v>
       </c>
@@ -18845,7 +18845,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>77</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>80</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>82</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="951" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>84</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="952" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>86</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="953" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>88</v>
       </c>
@@ -18983,7 +18983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="954" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>90</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="955" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>92</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="956" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>93</v>
       </c>
@@ -19052,7 +19052,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="957" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>95</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="958" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>97</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="959" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>99</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="960" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>101</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="961" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>103</v>
       </c>
@@ -19167,7 +19167,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="962" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>105</v>
       </c>
@@ -19190,7 +19190,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="963" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>107</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="964" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>109</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="965" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>111</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="966" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>113</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="967" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>114</v>
       </c>
@@ -19305,7 +19305,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="968" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>238</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="969" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>116</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="970" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>237</v>
       </c>
@@ -19374,7 +19374,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="971" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>118</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="972" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>120</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="974" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>0</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="975" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>2</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="976" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>4</v>
       </c>
@@ -19441,7 +19441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>5</v>
       </c>
@@ -19449,7 +19449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="978" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>7</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="979" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>9</v>
       </c>
@@ -19465,7 +19465,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="980" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>10</v>
       </c>
@@ -19473,17 +19473,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="981" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="982" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="983" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>15</v>
       </c>
@@ -19491,17 +19491,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="984" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="985" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="986" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>19</v>
       </c>
@@ -19527,7 +19527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="987" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>240</v>
       </c>
@@ -19550,7 +19550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="988" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>129</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="989" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>49</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="990" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>134</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="991" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>61</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="992" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>135</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="993" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>74</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="994" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>77</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="995" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>80</v>
       </c>
@@ -19734,7 +19734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="996" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>82</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="997" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>84</v>
       </c>
@@ -19780,7 +19780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="998" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>86</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="999" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>88</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>90</v>
       </c>
@@ -19849,7 +19849,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1001" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>92</v>
       </c>
@@ -19872,7 +19872,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1002" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
         <v>93</v>
       </c>
@@ -19895,7 +19895,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1003" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
         <v>95</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1004" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
         <v>97</v>
       </c>
@@ -19941,7 +19941,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1005" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1005" t="s">
         <v>99</v>
       </c>
@@ -19964,7 +19964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1006" t="s">
         <v>101</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1007" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1007" t="s">
         <v>103</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="1008" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1008" t="s">
         <v>105</v>
       </c>
@@ -20033,7 +20033,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="1009" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1009" t="s">
         <v>107</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="1010" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
         <v>109</v>
       </c>
@@ -20079,7 +20079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1011" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1011" t="s">
         <v>111</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="1012" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
         <v>113</v>
       </c>
@@ -20125,7 +20125,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1013" t="s">
         <v>114</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1014" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
         <v>116</v>
       </c>
@@ -20171,7 +20171,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1015" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1015" t="s">
         <v>237</v>
       </c>
@@ -20194,7 +20194,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="1016" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1016" t="s">
         <v>118</v>
       </c>
@@ -20217,7 +20217,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="1017" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1017" t="s">
         <v>128</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1019" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1019" s="1" t="s">
         <v>0</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="1020" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1020" t="s">
         <v>2</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1021" t="s">
         <v>4</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1022" t="s">
         <v>5</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1023" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1023" t="s">
         <v>7</v>
       </c>
@@ -20277,7 +20277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1024" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1024" t="s">
         <v>9</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1025" t="s">
         <v>10</v>
       </c>
@@ -20293,7 +20293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1026" t="s">
         <v>12</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1027" t="s">
         <v>14</v>
       </c>
@@ -20309,7 +20309,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1028" t="s">
         <v>15</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
         <v>17</v>
       </c>
@@ -20325,12 +20325,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1030" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1031" t="s">
         <v>19</v>
       </c>
@@ -20353,7 +20353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1032" t="s">
         <v>243</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1033" t="s">
         <v>245</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1034" t="s">
         <v>246</v>
       </c>
@@ -20419,7 +20419,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
         <v>248</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
         <v>250</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
         <v>253</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>254</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>86</v>
       </c>
@@ -20528,7 +20528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>114</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>99</v>
       </c>
@@ -20568,7 +20568,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>255</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>257</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>84</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>260</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>262</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>264</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>265</v>
       </c>
@@ -20714,7 +20714,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>267</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>269</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>270</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>105</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>273</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>271</v>
       </c>
@@ -20846,7 +20846,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="1056" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1056" s="1" t="s">
         <v>0</v>
       </c>
@@ -20854,7 +20854,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>2</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>4</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>5</v>
       </c>
@@ -20878,7 +20878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>7</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>9</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>10</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>12</v>
       </c>
@@ -20910,7 +20910,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>14</v>
       </c>
@@ -20918,7 +20918,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>15</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>17</v>
       </c>
@@ -20934,12 +20934,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1067" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1067" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>19</v>
       </c>
@@ -20962,7 +20962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>245</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>277</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>250</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>267</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>275</v>
       </c>
@@ -21080,5 +21080,6 @@
   </sheetData>
   <autoFilter ref="A1:H1017" xr:uid="{2A08E695-FC79-4DF0-ACCB-3B3F78317B74}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-rail-freight.xlsx
+++ b/premise/data/additional_inventories/lci-rail-freight.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6773C0A-3032-5644-9A31-EA25FAA30787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFDAEB-930B-404E-800F-42C66BFE2A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="1860" windowWidth="22100" windowHeight="17540" xr2:uid="{3988C069-CC65-40BA-9751-20608AAA2DA4}"/>
+    <workbookView xWindow="8140" yWindow="1860" windowWidth="22100" windowHeight="17540" xr2:uid="{3988C069-CC65-40BA-9751-20608AAA2DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4396" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="280">
   <si>
     <t>Activity</t>
   </si>
@@ -1041,11 +1041,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1362,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A08E695-FC79-4DF0-ACCB-3B3F78317B74}">
   <dimension ref="A1:H943"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1880,7 +1879,7 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3799,6 +3798,9 @@
       </c>
       <c r="D149" t="s">
         <v>278</v>
+      </c>
+      <c r="E149" t="s">
+        <v>240</v>
       </c>
       <c r="F149" t="s">
         <v>73</v>
